--- a/data/case1/12/V2_14.xlsx
+++ b/data/case1/12/V2_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999555937347</v>
+        <v>0.99999999758567748</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99695287031571767</v>
+        <v>0.99756036203660892</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.99170989717506142</v>
+        <v>0.99316843940224353</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.99372050337247164</v>
+        <v>0.99580294866853747</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.98255289282901237</v>
+        <v>0.98527854394369174</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.95547596008231506</v>
+        <v>0.96022807009011935</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.95298428524209733</v>
+        <v>0.9534656557579293</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.94886415097083043</v>
+        <v>0.94433386252873452</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.94629172800565819</v>
+        <v>0.93258589298702432</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.94464888372426659</v>
+        <v>0.92175550349575086</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.94441262799088077</v>
+        <v>0.92015911593213695</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.94421946758241537</v>
+        <v>0.91737892860298698</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.93809795505241023</v>
+        <v>0.90609059921803725</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.93622926528806083</v>
+        <v>0.90192288999694736</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.93578342266793069</v>
+        <v>0.89933120233880359</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.93581427427808084</v>
+        <v>0.89682457632695911</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.94408668312675981</v>
+        <v>0.89311648354843587</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.94297777290855778</v>
+        <v>0.89200754169284968</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99421689921768475</v>
+        <v>0.99491018798415332</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98709977703702134</v>
+        <v>0.9736359606153846</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98570127529174056</v>
+        <v>0.96791585890027398</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98443676716492678</v>
+        <v>0.95870708233443258</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.98467556540382017</v>
+        <v>0.98613416662613818</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.9716551689569215</v>
+        <v>0.97311383839742271</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.96519824810923516</v>
+        <v>0.96665692335182696</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.95182184529941205</v>
+        <v>0.95870259354304954</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.94697707002944131</v>
+        <v>0.9568270272396584</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.92551004798765235</v>
+        <v>0.94917293658177693</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.91024071810652141</v>
+        <v>0.94419134295953433</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.90367070062078958</v>
+        <v>0.94275457799895168</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.89601710766857212</v>
+        <v>0.93510179695473372</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.89433776606189874</v>
+        <v>0.93342246139257157</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.89381774742053444</v>
+        <v>0.93290243487163993</v>
       </c>
     </row>
   </sheetData>
